--- a/biology/Zoologie/Coenaletes/Coenaletes.xlsx
+++ b/biology/Zoologie/Coenaletes/Coenaletes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenaletes est un genre de collemboles, le seul de la famille des Coenaletidae et de la super-famille des Coenaletoidea.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent aux Caraïbes et en Nouvelle-Guinée.
 Les deux espèces de ce genre ont été découvertes sur des bernard l'ermites du genre Coenobita.
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Checklist of the Collembola of the World (version du 14 septembre 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Checklist of the Collembola of the World (version du 14 septembre 2019) :
 Coenaletes caribaeus Bellinger, 1985
 Coenaletes vangoethemi (Jacquemart, 1980)</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bellinger, 1985 : A new family of Collembola (Arthropoda, Tracheata), Caribean Journal of Science, vol. 21, no 3/4, p. 117-123 (texte intégral).</t>
         </is>
